--- a/data/type10.xlsx
+++ b/data/type10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32000" windowHeight="13660"/>
+    <workbookView windowWidth="30240" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1497,8 +1497,8 @@
   <sheetPr/>
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C104"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
